--- a/most boringlog.xlsx
+++ b/most boringlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A1CAC4-3F90-4EE3-82CE-8A28348B8AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F714E171-B8DB-4EDC-9C89-81C5B6D228B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -123,12 +128,6 @@
     <t>SS-11</t>
   </si>
   <si>
-    <t>DB-12</t>
-  </si>
-  <si>
-    <t>DB-13</t>
-  </si>
-  <si>
     <t>SS-14</t>
   </si>
   <si>
@@ -144,18 +143,6 @@
     <t>SS-18</t>
   </si>
   <si>
-    <t>DB-19</t>
-  </si>
-  <si>
-    <t>DB-20</t>
-  </si>
-  <si>
-    <t>DB-21</t>
-  </si>
-  <si>
-    <t>DB-22</t>
-  </si>
-  <si>
     <t>SM</t>
   </si>
   <si>
@@ -163,6 +150,24 @@
   </si>
   <si>
     <t>GW</t>
+  </si>
+  <si>
+    <t>ST-19</t>
+  </si>
+  <si>
+    <t>ST-12</t>
+  </si>
+  <si>
+    <t>ST-13</t>
+  </si>
+  <si>
+    <t>ST-20</t>
+  </si>
+  <si>
+    <t>ST-21</t>
+  </si>
+  <si>
+    <t>ST-22</t>
   </si>
 </sst>
 </file>
@@ -229,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -272,6 +277,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +598,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:N25"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +607,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -621,7 +630,7 @@
       <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="F2" s="14" t="s">
@@ -700,7 +709,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="6">
@@ -725,9 +734,11 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="M5" s="7">
+        <v>50</v>
+      </c>
       <c r="N5" s="6">
         <v>10</v>
       </c>
@@ -752,7 +763,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="6">
@@ -777,7 +788,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
@@ -810,12 +821,14 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L8" s="5">
         <v>22.5</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="5">
+        <v>190</v>
+      </c>
       <c r="N8" s="6">
         <v>38</v>
       </c>
@@ -848,7 +861,7 @@
         <v>21.2</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L9" s="5">
         <v>20</v>
@@ -875,7 +888,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L10" s="5">
         <v>22.5</v>
@@ -912,7 +925,7 @@
         <v>9.4</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L11" s="3">
         <v>22.5</v>
@@ -943,7 +956,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M12" s="11"/>
     </row>
@@ -965,7 +978,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7"/>
     </row>
@@ -989,13 +1002,13 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4">
         <v>9.32</v>
@@ -1013,13 +1026,13 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B16" s="4">
         <v>10.51</v>
@@ -1035,13 +1048,13 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="9">
         <v>12</v>
@@ -1057,13 +1070,13 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4">
         <v>13.5</v>
@@ -1091,13 +1104,13 @@
         <v>10.3</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4">
         <v>15</v>
@@ -1112,12 +1125,12 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="10">
         <v>16.5</v>
@@ -1132,12 +1145,12 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4">
         <v>17</v>
@@ -1152,12 +1165,12 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4">
         <v>17</v>
@@ -1175,12 +1188,12 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4">
         <v>17.899999999999999</v>
@@ -1198,12 +1211,12 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4">
         <v>18.32</v>
@@ -1218,12 +1231,12 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4">
         <v>19.350000000000001</v>
@@ -1238,11 +1251,12 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:J1"/>
